--- a/medicine/Enfance/Valentine_Goby/Valentine_Goby.xlsx
+++ b/medicine/Enfance/Valentine_Goby/Valentine_Goby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valentine Goby, née à Grasse en 1974, est une écrivaine française. Elle vit en région parisienne.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Sciences Po, Valentine Goby a vécu trois ans en Asie, à Hanoï et à Manille, où elle a travaillé pour des associations humanitaires auprès d'enfants des rues. Elle a commencé sa carrière professionnelle chez Accenture où elle a travaillé en ressources humaines de 1999 à 2001.
-Elle n'a jamais cessé d'écrire, et publie son premier roman en 2002 chez Gallimard : La Note sensible, qui obtient le prix René-Fallet 2003[1]. Elle devient enseignante en lettres et en théâtre, métier qu'elle exerce en collège durant huit années avant de se consacrer entièrement à l'écriture, et à de multiples projets autour des livres : ateliers, rencontres, conférences, résidences d'écritures en milieu scolaire, détention, en médiathèque, à l'université.
+Elle n'a jamais cessé d'écrire, et publie son premier roman en 2002 chez Gallimard : La Note sensible, qui obtient le prix René-Fallet 2003. Elle devient enseignante en lettres et en théâtre, métier qu'elle exerce en collège durant huit années avant de se consacrer entièrement à l'écriture, et à de multiples projets autour des livres : ateliers, rencontres, conférences, résidences d'écritures en milieu scolaire, détention, en médiathèque, à l'université.
 Elle est maître de conférences à Sciences Po en littérature et ateliers d'écriture de 2013 à 2016, conseillère littéraire pour le festival du livre de Metz depuis 2016, et chroniqueuse pour le journal La Croix de septembre 2016 à janvier 2017. Outre ses 13 publications en littérature générale, elle écrit une œuvre importante pour la jeunesse.
 Valentine Goby est lauréate de la Fondation Hachette, bourse jeunes écrivains 2002 et a reçu le prix Méditerranée des Jeunes, le prix du premier roman de l'université d'Artois, le prix Palissy, le prix René-Fallet et le prix premier roman de Culture et bibliothèques pour tous de la Sarthe en 2003. Elle a depuis reçu de multiples récompenses pour chacun de ses romans, en littérature générale et en littérature jeunesse.
-Publié chez Actes Sud en 2013, son roman Kinderzimmer reçoit 13 prix littéraires l'année suivante, dont le prix des libraires[2], et le prix Gabrielle-d'Estrées. Il est traduit ou en cours de traduction en plusieurs langues.
+Publié chez Actes Sud en 2013, son roman Kinderzimmer reçoit 13 prix littéraires l'année suivante, dont le prix des libraires, et le prix Gabrielle-d'Estrées. Il est traduit ou en cours de traduction en plusieurs langues.
 Valentine Goby a été présidente du Conseil permanent des écrivains, vice-présidente de La Charte des auteurs et illustrateurs jeunesse, administratrice de la SOFIA. Elle est chevalière des Arts et des Lettres.
 En août 2022, paraît son roman L'île haute chez Actes sud.
 </t>
@@ -548,9 +562,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalière de l'ordre des Arts et des Lettres (13 septembre 2016)[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalière de l'ordre des Arts et des Lettres (13 septembre 2016)</t>
         </is>
       </c>
     </row>
@@ -578,9 +594,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La Note sensible, Gallimard, 2002  (ISBN 2070765415) ; Folio, 2004  (ISBN 207031331X) Prix premier roman de Culture et bibliothèques pour tous de la Sarthe ; Prix René-Fallet 2003[1] 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Note sensible, Gallimard, 2002  (ISBN 2070765415) ; Folio, 2004  (ISBN 207031331X) Prix premier roman de Culture et bibliothèques pour tous de la Sarthe ; Prix René-Fallet 2003 
 Sept jours, Gallimard, 2003  (ISBN 2070733025) ; Folio, 2016
 L'Antilope blanche, Gallimard, 2005  (ISBN 2070774732) ; Feryane, 2006  (ISBN 2840116928) ; Folio, 2007  (ISBN 2070347109)
 Manuelo de la Plaine, Gallimard Jeunesse, coll. « Folio junior », 2007
@@ -595,7 +613,7 @@
 Chaïma et les secrets d'Hassan, du Maroc à Marseille, illustrations de Ronan Badel, Autrement Jeunesse, 2009
 Anouche ou la fin de l'errance, de l'Arménie à la Vallée du Rhône, Autrement Jeunesse, 2010
 João ou l'année des révolutions, du Portugal à Champigny, Autrement Jeunesse, 2010
-Antonio ou la Résistance, de l'Espagne à la région Toulousaine[4], illustrations de Ronan Badel, Autrement Jeunesse, 2011 Prix du roman historique jeunesse 2013[5] 
+Antonio ou la Résistance, de l'Espagne à la région Toulousaine, illustrations de Ronan Badel, Autrement Jeunesse, 2011 Prix du roman historique jeunesse 2013 
 Lyuba ou la tête dans les étoiles, de la Roumanie à l'Île de France, illustrations de Ronan Badel, Autrement Jeunesse, 2012
 Les Deux Vies de Ning. De la Chine à Paris-Belleville, illustré par Philippe de Kemmeter, Autrement Jeunesse, 2013
 Tous Français d'ailleurs !, Casterman, 2016, Grand format jeunesse (compilation de six romans de la collection Français d'ailleurs)
@@ -605,15 +623,15 @@
 Le Voyage immobile, Actes Sud Junior, 2012
 Le Mystère de Hawa'a, Albin Michel Jeunesse, 2013 (album)
 La Porte rouge, 2013, Thierry Magnier, (coll. « Photoroman »)
-Une preuve d'amour, éditions Thierry Magnier[6], 2013 et nouvelle édition 2017 (roman jeunesse)
+Une preuve d'amour, éditions Thierry Magnier, 2013 et nouvelle édition 2017 (roman jeunesse)
 Kinderzimmer, Actes Sud, 2013  (ISBN 9782330022600) ; coll. « Babel », 2015
-Prix des libraires 2014[2] ; Autres prix 2014 : Prix Libraires en Seine ; Prix des lecteurs du Maine Libre ; Prix SOS libraires ; prix Gabrielle-d'Estrées ; Prix littéraire de l'Académie de Bretagne et des Pays de Loire ; Prix coup de cœur des lecteurs, Salon du livre d'histoire de Blois ; Prix Jean d'Heurs du roman historique ; Prix Jean-Monnet des Jeunes Européens ; Prix des lycéens et apprentis d'Ile de France[7] ; Prix des Lycéens de Gujan Mestras ; Prix des lycéens et apprentis de la région PACA ; Prix de la Fondation Annalise Wagner (Neubrandenburg - Allemagne)
+Prix des libraires 2014 ; Autres prix 2014 : Prix Libraires en Seine ; Prix des lecteurs du Maine Libre ; Prix SOS libraires ; prix Gabrielle-d'Estrées ; Prix littéraire de l'Académie de Bretagne et des Pays de Loire ; Prix coup de cœur des lecteurs, Salon du livre d'histoire de Blois ; Prix Jean d'Heurs du roman historique ; Prix Jean-Monnet des Jeunes Européens ; Prix des lycéens et apprentis d'Ile de France ; Prix des Lycéens de Gujan Mestras ; Prix des lycéens et apprentis de la région PACA ; Prix de la Fondation Annalise Wagner (Neubrandenburg - Allemagne)
 La Fille surexposée, Alma Editeur (coll. « Pabloïd »), 2014  (ISBN 9782362791031), publication en collection Babel (sept 2022)
 Baumes, Actes Sud, 2014 (coll. « Essences »)  (ISBN 978-2-330-03689-8)
 Le Grand Mensonge de la famille Pommerol, Thierry Magnier, 2015 (coll. « En voiture Simone ! »)
 Juliette Pommerol chez les Angliches, Thierry Magnier, 2016 (coll. « En voiture Simone ! ») Prix littéraires : Primé des écoliers, Reims 2016 ; Prix Époque du Festival du livre de Caen 2017
 Le Sorcier vert, Thierry Magnier, 2016 (coll. « Les décadrés ») album
-Un paquebot dans les arbres, Actes Sud, 2016[8]- existe en Babel  Prix du roman de L'Hebdo 2016 ; Roman français de l'année 2016 : Étoile du journal Le Parisien Aujourd'hui en France ; Sélection du Prix Patrimoines 2016[9] : Prix Culture et bibliothèque pour tous (Cherbourg) 2017 ; Prix Lycéens des villes, lycéens des Champs (Normandie) ; Grand prix de la fiction de la Société des Gens de Lettres 2017
+Un paquebot dans les arbres, Actes Sud, 2016- existe en Babel  Prix du roman de L'Hebdo 2016 ; Roman français de l'année 2016 : Étoile du journal Le Parisien Aujourd'hui en France ; Sélection du Prix Patrimoines 2016 : Prix Culture et bibliothèque pour tous (Cherbourg) 2017 ; Prix Lycéens des villes, lycéens des Champs (Normandie) ; Grand prix de la fiction de la Société des Gens de Lettres 2017
 La Fiesta de Mamie Pommerol, coll. « En voiture Simone ! », Thierry Magnier, 2017
  « Je me promets d'éclatantes revanches » - Une lecture intime de Charlotte Delbo, L'Iconoclaste, 2017
 Tu seras mon arbre, Thierry Magnier, 2018 Réécriture de la métamorphose d'Ovide dans laquelle Daphné se transforme en arbre pour échapper aux ardeurs d'Apollon.
